--- a/Data/EC/NIT-9008332758.xlsx
+++ b/Data/EC/NIT-9008332758.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D11F9F-9D48-4EA9-9ED7-AD9ECF589A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B10E52ED-5F57-46AD-84F7-2BDC24C4DC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85BA01C8-BDB5-4BBB-8FC1-062439AFC693}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B1F88685-34BF-4CA8-93EA-E17E503FE118}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,64 +65,64 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1235047564</t>
+  </si>
+  <si>
+    <t>YESSICA CAROLINA BOLIVAR ROSALES</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>52706194</t>
   </si>
   <si>
     <t>YOLADIS PUELLO LLERENA</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>30879583</t>
+  </si>
+  <si>
+    <t>EIMY DE LOS MILAGROS BARRAZA PINTO</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
     <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>30879583</t>
-  </si>
-  <si>
-    <t>EIMY DE LOS MILAGROS BARRAZA PINTO</t>
-  </si>
-  <si>
-    <t>1235047564</t>
-  </si>
-  <si>
-    <t>YESSICA CAROLINA BOLIVAR ROSALES</t>
-  </si>
-  <si>
-    <t>2208</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -221,7 +221,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -234,9 +236,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -436,23 +436,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,10 +480,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC3FBA9-1438-8319-D4D7-E29AF2BA249F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2DBF47-829B-2F84-9B62-C992BF36EFC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2633071A-B343-44EE-9575-DC1D8BA1F68E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE93F2B-5AD5-49A4-9C27-CC406A41640B}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1068,7 +1068,7 @@
         <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1079,19 +1079,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1102,19 +1102,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1125,19 +1125,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1148,19 +1148,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1171,19 +1171,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1194,19 +1194,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1217,19 +1217,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1240,19 +1240,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1263,19 +1263,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1286,19 +1286,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1309,19 +1309,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1332,19 +1332,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1355,13 +1355,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1378,10 +1378,10 @@
         <v>8</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>28</v>
